--- a/cordova/climapp/res/communicables/heat_info.xlsx
+++ b/cordova/climapp/res/communicables/heat_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boriskingma/Documents/GitHub/ClimApp/cordova/climapp/res/communicables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29EE3B2-2E45-6145-93F9-D2A77E2E0F83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F59C2B-9964-5648-AFB8-26FD791AC8F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1460" windowWidth="27640" windowHeight="16540" xr2:uid="{3549EA8E-F88F-8A42-9343-B551678576B9}"/>
+    <workbookView xWindow="1160" yWindow="1460" windowWidth="27640" windowHeight="16540" xr2:uid="{3549EA8E-F88F-8A42-9343-B551678576B9}"/>
   </bookViews>
   <sheets>
     <sheet name="heat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,88 +25,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
-  <si>
-    <t>heatindex</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>The green level means that low thermal stress is forecasted.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>colorcode</t>
   </si>
   <si>
-    <t>The yellow level means that moderate heat stress is expected.</t>
-  </si>
-  <si>
-    <t>The orange level means that high heat stress is expected.</t>
-  </si>
-  <si>
-    <t>This level is associated with severe heat stress.</t>
-  </si>
-  <si>
-    <t>The personalized heat stress indicator depends on the weather report as well as your personal input</t>
-  </si>
-  <si>
-    <t>The score will increase towards higher warning levels if the weather agravates, your activity level increases or your clothing level increases.</t>
-  </si>
-  <si>
-    <t>No special precautions are required unless you work/excercise in special settings (indoor) or with resticted ability to release heat.</t>
-  </si>
-  <si>
-    <t>You should be able to maintain normal activities. You may experience higher thermal strain and more sweating than normal.</t>
-  </si>
-  <si>
-    <t>Consider clothing adjustments and drink more than normal; especially when the score approaches the red heat stress level.</t>
-  </si>
-  <si>
-    <t>Pay special attention to drinking sufficient during the first days with this heat stress.</t>
-  </si>
-  <si>
-    <t>Consider adjusting activities (heavy physical tasks during periods of the day with lowest heat) and allow time to adapt.</t>
-  </si>
-  <si>
-    <t>Be aware that thirst is usually not a sufficient indicator when losses are high.</t>
-  </si>
-  <si>
-    <t>Remember to drink/rehydrate with your meals.</t>
-  </si>
-  <si>
-    <t>This level is associated with severe heat stress</t>
-  </si>
-  <si>
-    <t>Your estimated sweat rate surpasses "+ sw_tot_per_hour+" Liter per hour, so additional drinking is required.</t>
-  </si>
-  <si>
-    <t>The heat will impact your physical performance - adjusting activities and allowing sufficient breaks will benefit your overall daily ability to cope with the heat.</t>
-  </si>
-  <si>
-    <t>wbgt/ral</t>
-  </si>
-  <si>
-    <t>&lt;0.8</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
-  </si>
-  <si>
-    <t>&lt;1.2</t>
-  </si>
-  <si>
-    <t>&gt;1.2</t>
+    <t>wbgt</t>
+  </si>
+  <si>
+    <t>ral</t>
+  </si>
+  <si>
+    <t>rh</t>
+  </si>
+  <si>
+    <t>OUTPUTS</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE</t>
+  </si>
+  <si>
+    <t>FAN_FAVOURABLE</t>
+  </si>
+  <si>
+    <t>HYDRATION_FAVOURABLE</t>
+  </si>
+  <si>
+    <t>vair_10m</t>
+  </si>
+  <si>
+    <t>metabolicrate</t>
+  </si>
+  <si>
+    <t>windchill</t>
+  </si>
+  <si>
+    <t>ireq</t>
+  </si>
+  <si>
+    <t>headgear</t>
+  </si>
+  <si>
+    <t>WINDSTOPPER_FAVOURABLE</t>
+  </si>
+  <si>
+    <t>REST_FAVOURABLE</t>
+  </si>
+  <si>
+    <t>CONTEXT INPUT</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>expertiselevel</t>
+  </si>
+  <si>
+    <t>tglobe</t>
+  </si>
+  <si>
+    <t>mrt</t>
+  </si>
+  <si>
+    <t>tair</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>summer attire</t>
+  </si>
+  <si>
+    <t>coverall</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>winter attire</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>beginner</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>INDEX INPUT</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL INPUT</t>
+  </si>
+  <si>
+    <t>dlim_ireq</t>
+  </si>
+  <si>
+    <t>dlim_phs_tc</t>
+  </si>
+  <si>
+    <t>dlim_phs_sweat</t>
+  </si>
+  <si>
+    <t>phs_sweat</t>
+  </si>
+  <si>
+    <t>WINDCHILL_WARNING</t>
+  </si>
+  <si>
+    <t>imageurl</t>
+  </si>
+  <si>
+    <t>mitigationtext</t>
+  </si>
+  <si>
+    <t>descriptiontext</t>
+  </si>
+  <si>
+    <t>SHADE_FAVOURABLE</t>
+  </si>
+  <si>
+    <t>WBGT_RAL_RATIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,8 +165,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,30 +183,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,19 +208,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,257 +576,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDFFA8-92E8-2848-BE81-02D5ED0367E6}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="6"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3">
+        <v>0.8</v>
+      </c>
+      <c r="W3" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="AC3" s="9"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4">
+        <v>0.8</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
+      <c r="AC5" s="9"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>1.2</v>
+      </c>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC7" s="9"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC9" s="9"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC10" s="9"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC11" s="9"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC12" s="10"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC14" s="10"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AC16" s="10"/>
+    </row>
+    <row r="17" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC17" s="10"/>
+    </row>
+    <row r="18" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
